--- a/www/IndicatorsPerCountry/SierraLeone_LifeExpectancyatBirthTotal_TerritorialRef_1961_2012_CCode_694.xlsx
+++ b/www/IndicatorsPerCountry/SierraLeone_LifeExpectancyatBirthTotal_TerritorialRef_1961_2012_CCode_694.xlsx
@@ -105,13 +105,13 @@
     <t>Zijdeman, Richard and Filipa Ribeira da Silva (2015). Life Expectancy at Birth (Total). http://hdl.handle.net/10622/LKYT53, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_LKYT53.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_LKYT53.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_LKYT53.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_LKYT53.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_LKYT53.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_LKYT53.bib</t>
   </si>
 </sst>
 </file>
